--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业负债.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业负债.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1342 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594.8253</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>1607.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3042.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1133.2</v>
+      </c>
       <c r="E2" t="n">
-        <v>505.8962</v>
+        <v>2735.1</v>
       </c>
       <c r="F2" t="n">
-        <v>97.2239</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>2106.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1023.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1313.5</v>
+      </c>
       <c r="J2" t="n">
-        <v>849</v>
+        <v>11330.5</v>
       </c>
       <c r="K2" t="n">
-        <v>449.3869</v>
+        <v>2850.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1161.0401</v>
+        <v>871.9</v>
       </c>
       <c r="M2" t="n">
-        <v>229.6377</v>
+        <v>3948.8</v>
       </c>
       <c r="N2" t="n">
-        <v>1168.3276</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>5445.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29684.8</v>
+      </c>
       <c r="P2" t="n">
-        <v>1323.5512</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+        <v>1517.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3790.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>809.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2838.4</v>
+      </c>
       <c r="T2" t="n">
-        <v>922.271</v>
+        <v>13710.9</v>
       </c>
       <c r="U2" t="n">
-        <v>3127.6927</v>
+        <v>4375.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2195.1041</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3166.2907</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1600.339</v>
+      </c>
       <c r="E3" t="n">
-        <v>577.0202</v>
+        <v>3726.9586</v>
       </c>
       <c r="F3" t="n">
-        <v>94.8878</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>2800.6912</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1314.9034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2529.6455</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2018.079</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14357.1157</v>
+      </c>
       <c r="K3" t="n">
-        <v>438.5139</v>
+        <v>3630.5629</v>
       </c>
       <c r="L3" t="n">
-        <v>838.4645</v>
+        <v>1124.0913</v>
       </c>
       <c r="M3" t="n">
-        <v>204.9042</v>
+        <v>5733.9489</v>
       </c>
       <c r="N3" t="n">
-        <v>1243.5337</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>7326.3774</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40118.6339</v>
+      </c>
       <c r="P3" t="n">
-        <v>1298.7104</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>1661.4093</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5238.0194</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1417.5927</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3003.2316</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18236.4523</v>
+      </c>
       <c r="U3" t="n">
-        <v>2748.446</v>
+        <v>5669.9411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2499.08804</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3517.46318</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2127.56813</v>
+      </c>
       <c r="E4" t="n">
-        <v>652.6852</v>
+        <v>4447.5403</v>
       </c>
       <c r="F4" t="n">
-        <v>122.2742</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>3352.63295</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2312.21339</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2818.98558</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2174.82349</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13713.22429</v>
+      </c>
       <c r="K4" t="n">
-        <v>404.0337</v>
+        <v>3808.99922</v>
       </c>
       <c r="L4" t="n">
-        <v>810.179</v>
+        <v>1130.7083</v>
       </c>
       <c r="M4" t="n">
-        <v>214.9209</v>
+        <v>8036.14995</v>
       </c>
       <c r="N4" t="n">
-        <v>1300.1858</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>8838.85896</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49061.78167</v>
+      </c>
       <c r="P4" t="n">
-        <v>1388.8173</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>2330.56959</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8762.67973</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1070.25224</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2924.83134</v>
+      </c>
+      <c r="T4" t="n">
+        <v>21178.0502</v>
+      </c>
       <c r="U4" t="n">
-        <v>2764.6179</v>
+        <v>6578.75463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.01864</v>
+        <v>3064.23344</v>
       </c>
       <c r="C5" t="n">
-        <v>1798.41645</v>
+        <v>4190.46501</v>
       </c>
       <c r="D5" t="n">
-        <v>351.68425</v>
+        <v>2208.00495</v>
       </c>
       <c r="E5" t="n">
-        <v>774.60212</v>
+        <v>5568.72269</v>
       </c>
       <c r="F5" t="n">
-        <v>244.80315</v>
+        <v>4220.74909</v>
       </c>
       <c r="G5" t="n">
-        <v>335.3226</v>
+        <v>2478.45012</v>
       </c>
       <c r="H5" t="n">
-        <v>209.0744</v>
+        <v>3337.62487</v>
       </c>
       <c r="I5" t="n">
-        <v>439.10928</v>
+        <v>2599.93472</v>
       </c>
       <c r="J5" t="n">
-        <v>2311.69402</v>
+        <v>16732.35015</v>
       </c>
       <c r="K5" t="n">
-        <v>594.94051</v>
+        <v>4817.53471</v>
       </c>
       <c r="L5" t="n">
-        <v>797.70466</v>
+        <v>1124.20438</v>
       </c>
       <c r="M5" t="n">
-        <v>278.92421</v>
+        <v>10040.93037</v>
       </c>
       <c r="N5" t="n">
-        <v>1199.11209</v>
+        <v>11580.53766</v>
       </c>
       <c r="O5" t="n">
-        <v>4184.00522</v>
+        <v>61209.22809</v>
       </c>
       <c r="P5" t="n">
-        <v>589.43639</v>
+        <v>2689.7878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1435.12306</v>
+        <v>10790.52899</v>
       </c>
       <c r="R5" t="n">
-        <v>88.61713</v>
+        <v>1144.86334</v>
       </c>
       <c r="S5" t="n">
-        <v>321.084</v>
+        <v>3531.36821</v>
       </c>
       <c r="T5" t="n">
-        <v>1652.35147</v>
+        <v>25951.17297</v>
       </c>
       <c r="U5" t="n">
-        <v>1917.95231</v>
+        <v>8259.127140000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>791.44542</v>
+        <v>3464.16064</v>
       </c>
       <c r="C6" t="n">
-        <v>2624.97409</v>
+        <v>5044.2804</v>
       </c>
       <c r="D6" t="n">
-        <v>381.41805</v>
+        <v>2795.39121</v>
       </c>
       <c r="E6" t="n">
-        <v>1069.60864</v>
+        <v>6787.44364</v>
       </c>
       <c r="F6" t="n">
-        <v>493.24271</v>
+        <v>4922.1905</v>
       </c>
       <c r="G6" t="n">
-        <v>375.95277</v>
+        <v>3057.1921</v>
       </c>
       <c r="H6" t="n">
-        <v>578.5725</v>
+        <v>3839.03541</v>
       </c>
       <c r="I6" t="n">
-        <v>458.02664</v>
+        <v>3192.19664</v>
       </c>
       <c r="J6" t="n">
-        <v>4051.39708</v>
+        <v>19645.24262</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.98075</v>
+        <v>5487.2254</v>
       </c>
       <c r="L6" t="n">
-        <v>830.25031</v>
+        <v>1043.38945</v>
       </c>
       <c r="M6" t="n">
-        <v>583.04494</v>
+        <v>10791.8915</v>
       </c>
       <c r="N6" t="n">
-        <v>1968.50655</v>
+        <v>11493.75865</v>
       </c>
       <c r="O6" t="n">
-        <v>7313.38744</v>
+        <v>66920.54876000001</v>
       </c>
       <c r="P6" t="n">
-        <v>689.35534</v>
+        <v>2907.6223</v>
       </c>
       <c r="Q6" t="n">
-        <v>1491.43818</v>
+        <v>12008.93097</v>
       </c>
       <c r="R6" t="n">
-        <v>312.83662</v>
+        <v>1397.83524</v>
       </c>
       <c r="S6" t="n">
-        <v>202.7054</v>
+        <v>4187.47921</v>
       </c>
       <c r="T6" t="n">
-        <v>2939.04008</v>
+        <v>28300.08487</v>
       </c>
       <c r="U6" t="n">
-        <v>2284.41231</v>
+        <v>9054.29019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1085.36807</v>
+        <v>3408.2428</v>
       </c>
       <c r="C7" t="n">
-        <v>2470.3957</v>
+        <v>5002.1883</v>
       </c>
       <c r="D7" t="n">
-        <v>442.09339</v>
+        <v>2805.2562</v>
       </c>
       <c r="E7" t="n">
-        <v>1093.18158</v>
+        <v>7860.2477</v>
       </c>
       <c r="F7" t="n">
-        <v>557.06048</v>
+        <v>4929.687</v>
       </c>
       <c r="G7" t="n">
-        <v>380.89053</v>
+        <v>3292.2021</v>
       </c>
       <c r="H7" t="n">
-        <v>583.19655</v>
+        <v>3734.9446</v>
       </c>
       <c r="I7" t="n">
-        <v>512.99641</v>
+        <v>3433.673</v>
       </c>
       <c r="J7" t="n">
-        <v>3636.6364</v>
+        <v>21201.5288</v>
       </c>
       <c r="K7" t="n">
-        <v>842.5397</v>
+        <v>5911.6759</v>
       </c>
       <c r="L7" t="n">
-        <v>707.99769</v>
+        <v>1241.4492</v>
       </c>
       <c r="M7" t="n">
-        <v>649.56819</v>
+        <v>10670.1258</v>
       </c>
       <c r="N7" t="n">
-        <v>2000.76774</v>
+        <v>13199.6454</v>
       </c>
       <c r="O7" t="n">
-        <v>7816.71737</v>
+        <v>64715.5168</v>
       </c>
       <c r="P7" t="n">
-        <v>557.1168699999999</v>
+        <v>2951.0934</v>
       </c>
       <c r="Q7" t="n">
-        <v>1514.51795</v>
+        <v>12256.4759</v>
       </c>
       <c r="R7" t="n">
-        <v>312.41803</v>
+        <v>1523.0953</v>
       </c>
       <c r="S7" t="n">
-        <v>241.24363</v>
+        <v>3746.4365</v>
       </c>
       <c r="T7" t="n">
-        <v>3192.98976</v>
+        <v>24937.1721</v>
       </c>
       <c r="U7" t="n">
-        <v>1960.55053</v>
+        <v>10531.0593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>851.2137</v>
+        <v>3760.2581</v>
       </c>
       <c r="C8" t="n">
-        <v>2277.1279</v>
+        <v>5874.3891</v>
       </c>
       <c r="D8" t="n">
-        <v>542.1189000000001</v>
+        <v>2437.5827</v>
       </c>
       <c r="E8" t="n">
-        <v>1223.8867</v>
+        <v>9104.206399999999</v>
       </c>
       <c r="F8" t="n">
-        <v>643.3388</v>
+        <v>5673.0525</v>
       </c>
       <c r="G8" t="n">
-        <v>429.4246</v>
+        <v>3658.6219</v>
       </c>
       <c r="H8" t="n">
-        <v>641.3971</v>
+        <v>4180.8166</v>
       </c>
       <c r="I8" t="n">
-        <v>640.7443</v>
+        <v>3271.1526</v>
       </c>
       <c r="J8" t="n">
-        <v>3907.1142</v>
+        <v>24117.5017</v>
       </c>
       <c r="K8" t="n">
-        <v>731.1656</v>
+        <v>6706.5471</v>
       </c>
       <c r="L8" t="n">
-        <v>695.1601000000001</v>
+        <v>1489.921</v>
       </c>
       <c r="M8" t="n">
-        <v>754.1655</v>
+        <v>11458.4154</v>
       </c>
       <c r="N8" t="n">
-        <v>2230.5889</v>
+        <v>13115.7145</v>
       </c>
       <c r="O8" t="n">
-        <v>9162.031800000001</v>
+        <v>70270.3881</v>
       </c>
       <c r="P8" t="n">
-        <v>544.75</v>
+        <v>3334.957</v>
       </c>
       <c r="Q8" t="n">
-        <v>1741.7887</v>
+        <v>12830.5731</v>
       </c>
       <c r="R8" t="n">
-        <v>257.0113</v>
+        <v>1774.378</v>
       </c>
       <c r="S8" t="n">
-        <v>674.1727</v>
+        <v>3678.7329</v>
       </c>
       <c r="T8" t="n">
-        <v>3962.0684</v>
+        <v>28029.4266</v>
       </c>
       <c r="U8" t="n">
-        <v>1982.8409</v>
+        <v>11749.6447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1131.48427</v>
+        <v>3447.027</v>
       </c>
       <c r="C9" t="n">
-        <v>2087.10011</v>
+        <v>5831.218</v>
       </c>
       <c r="D9" t="n">
-        <v>648.90818</v>
+        <v>2229.469</v>
       </c>
       <c r="E9" t="n">
-        <v>1380.1738</v>
+        <v>11129.493</v>
       </c>
       <c r="F9" t="n">
-        <v>911.55182</v>
+        <v>6362.505</v>
       </c>
       <c r="G9" t="n">
-        <v>496.78898</v>
+        <v>4341.532</v>
       </c>
       <c r="H9" t="n">
-        <v>811.01079</v>
+        <v>7540.651</v>
       </c>
       <c r="I9" t="n">
-        <v>742.9802100000001</v>
+        <v>3131.621</v>
       </c>
       <c r="J9" t="n">
-        <v>4998.80442</v>
+        <v>26220.07</v>
       </c>
       <c r="K9" t="n">
-        <v>916.68417</v>
+        <v>7644.117</v>
       </c>
       <c r="L9" t="n">
-        <v>633.79882</v>
+        <v>1404.872</v>
       </c>
       <c r="M9" t="n">
-        <v>958.8627</v>
+        <v>11876.717</v>
       </c>
       <c r="N9" t="n">
-        <v>3069.8806</v>
+        <v>14921.134</v>
       </c>
       <c r="O9" t="n">
-        <v>12613.03585</v>
+        <v>77379.74000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>560.54974</v>
+        <v>3403.046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2037.1417</v>
+        <v>16757.837</v>
       </c>
       <c r="R9" t="n">
-        <v>302.69683</v>
+        <v>2059.892</v>
       </c>
       <c r="S9" t="n">
-        <v>600.99574</v>
+        <v>4063.211</v>
       </c>
       <c r="T9" t="n">
-        <v>5669.06167</v>
+        <v>30811.121</v>
       </c>
       <c r="U9" t="n">
-        <v>2107.26845</v>
+        <v>12426.638</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1008.1712</v>
+        <v>2856.2</v>
       </c>
       <c r="C10" t="n">
-        <v>2131.9793</v>
+        <v>6777.1</v>
       </c>
       <c r="D10" t="n">
-        <v>1041.6412</v>
+        <v>2286.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1881.7133</v>
+        <v>13431.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1335.6587</v>
+        <v>7860.5</v>
       </c>
       <c r="G10" t="n">
-        <v>756.0325</v>
+        <v>4587.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1096.1839</v>
+        <v>5781.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1091.099</v>
+        <v>3159.2</v>
       </c>
       <c r="J10" t="n">
-        <v>7522.18</v>
+        <v>30050.2</v>
       </c>
       <c r="K10" t="n">
-        <v>1702.6438</v>
+        <v>10335.3</v>
       </c>
       <c r="L10" t="n">
-        <v>686.8905</v>
+        <v>1499</v>
       </c>
       <c r="M10" t="n">
-        <v>2078.7541</v>
+        <v>11373.6</v>
       </c>
       <c r="N10" t="n">
-        <v>3761.4891</v>
+        <v>15941.2</v>
       </c>
       <c r="O10" t="n">
-        <v>19727.1443</v>
+        <v>87449.89999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>1027.4213</v>
+        <v>3699.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>2882.55</v>
+        <v>17539.4</v>
       </c>
       <c r="R10" t="n">
-        <v>437.0504</v>
+        <v>2524.9</v>
       </c>
       <c r="S10" t="n">
-        <v>1808.3425</v>
+        <v>3659.1</v>
       </c>
       <c r="T10" t="n">
-        <v>9229.7274</v>
+        <v>37477.3</v>
       </c>
       <c r="U10" t="n">
-        <v>3074.0402</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1161.6534</v>
+        <v>3606.6463</v>
       </c>
       <c r="C11" t="n">
-        <v>2415.045</v>
+        <v>8020.9194</v>
       </c>
       <c r="D11" t="n">
-        <v>905.85402</v>
+        <v>2360.232</v>
       </c>
       <c r="E11" t="n">
-        <v>2260.5343</v>
+        <v>16412.3276</v>
       </c>
       <c r="F11" t="n">
-        <v>1629.00223</v>
+        <v>10540.9836</v>
       </c>
       <c r="G11" t="n">
-        <v>810.13123</v>
+        <v>5434.7628</v>
       </c>
       <c r="H11" t="n">
-        <v>1688.66314</v>
+        <v>6786.8833</v>
       </c>
       <c r="I11" t="n">
-        <v>1032.33511</v>
+        <v>3597.4156</v>
       </c>
       <c r="J11" t="n">
-        <v>9073.624449999999</v>
+        <v>34375.5182</v>
       </c>
       <c r="K11" t="n">
-        <v>2080.96572</v>
+        <v>11786.4191</v>
       </c>
       <c r="L11" t="n">
-        <v>735.13149</v>
+        <v>1323.2995</v>
       </c>
       <c r="M11" t="n">
-        <v>2652.40077</v>
+        <v>14445.363</v>
       </c>
       <c r="N11" t="n">
-        <v>4484.37513</v>
+        <v>18446.3517</v>
       </c>
       <c r="O11" t="n">
-        <v>22349.30868</v>
+        <v>105398.6948</v>
       </c>
       <c r="P11" t="n">
-        <v>1055.81626</v>
+        <v>4398.1412</v>
       </c>
       <c r="Q11" t="n">
-        <v>3038.53027</v>
+        <v>20278.3305</v>
       </c>
       <c r="R11" t="n">
-        <v>620.02631</v>
+        <v>2692.8999</v>
       </c>
       <c r="S11" t="n">
-        <v>1935.98872</v>
+        <v>4137.512</v>
       </c>
       <c r="T11" t="n">
-        <v>10154.17266</v>
+        <v>45305.3637</v>
       </c>
       <c r="U11" t="n">
-        <v>3292.71953</v>
+        <v>16510.7207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1607.8</v>
+        <v>4813.5918</v>
       </c>
       <c r="C12" t="n">
-        <v>3042.7</v>
+        <v>9931.649100000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1133.2</v>
+        <v>2629.5856</v>
       </c>
       <c r="E12" t="n">
-        <v>2735.1</v>
+        <v>18999.8028</v>
       </c>
       <c r="F12" t="n">
-        <v>2106.2</v>
+        <v>13376.4493</v>
       </c>
       <c r="G12" t="n">
-        <v>1023.3</v>
+        <v>5789.2075</v>
       </c>
       <c r="H12" t="n">
-        <v>2025</v>
+        <v>7983.9453</v>
       </c>
       <c r="I12" t="n">
-        <v>1313.5</v>
+        <v>3791.9217</v>
       </c>
       <c r="J12" t="n">
-        <v>11330.5</v>
+        <v>40869.7035</v>
       </c>
       <c r="K12" t="n">
-        <v>2850.9</v>
+        <v>14047.0107</v>
       </c>
       <c r="L12" t="n">
-        <v>871.9</v>
+        <v>1346.8378</v>
       </c>
       <c r="M12" t="n">
-        <v>3948.8</v>
+        <v>17355.2387</v>
       </c>
       <c r="N12" t="n">
-        <v>5445.2</v>
+        <v>18548.2568</v>
       </c>
       <c r="O12" t="n">
-        <v>29684.8</v>
+        <v>123388.3688</v>
       </c>
       <c r="P12" t="n">
-        <v>1517.1</v>
+        <v>5051.337</v>
       </c>
       <c r="Q12" t="n">
-        <v>3790.6</v>
+        <v>22878.7123</v>
       </c>
       <c r="R12" t="n">
-        <v>809.6</v>
+        <v>3267.7604</v>
       </c>
       <c r="S12" t="n">
-        <v>2838.4</v>
+        <v>4065.2311</v>
       </c>
       <c r="T12" t="n">
-        <v>13710.9</v>
+        <v>53827.4866</v>
       </c>
       <c r="U12" t="n">
-        <v>4375.2</v>
+        <v>19417.8985</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2195.1041</v>
+        <v>5257.694</v>
       </c>
       <c r="C13" t="n">
-        <v>3166.2907</v>
+        <v>11868.7103</v>
       </c>
       <c r="D13" t="n">
-        <v>1600.339</v>
+        <v>2932.0721</v>
       </c>
       <c r="E13" t="n">
-        <v>3726.9586</v>
+        <v>21173.3102</v>
       </c>
       <c r="F13" t="n">
-        <v>2800.6912</v>
+        <v>17078.2538</v>
       </c>
       <c r="G13" t="n">
-        <v>1314.9034</v>
+        <v>6416.3395</v>
       </c>
       <c r="H13" t="n">
-        <v>2529.6455</v>
+        <v>9269.086300000001</v>
       </c>
       <c r="I13" t="n">
-        <v>2018.079</v>
+        <v>4126.4726</v>
       </c>
       <c r="J13" t="n">
-        <v>14357.1157</v>
+        <v>45959.1062</v>
       </c>
       <c r="K13" t="n">
-        <v>3630.5629</v>
+        <v>15659.1083</v>
       </c>
       <c r="L13" t="n">
-        <v>1124.0913</v>
+        <v>1261.8603</v>
       </c>
       <c r="M13" t="n">
-        <v>5733.9489</v>
+        <v>22531.9137</v>
       </c>
       <c r="N13" t="n">
-        <v>7326.3774</v>
+        <v>19756.7761</v>
       </c>
       <c r="O13" t="n">
-        <v>40118.6339</v>
+        <v>145063.2407</v>
       </c>
       <c r="P13" t="n">
-        <v>1661.4093</v>
+        <v>5685.8829</v>
       </c>
       <c r="Q13" t="n">
-        <v>5238.0194</v>
+        <v>26177.5186</v>
       </c>
       <c r="R13" t="n">
-        <v>1417.5927</v>
+        <v>3950.2271</v>
       </c>
       <c r="S13" t="n">
-        <v>3003.2316</v>
+        <v>3913.486</v>
       </c>
       <c r="T13" t="n">
-        <v>18236.4523</v>
+        <v>59053.5077</v>
       </c>
       <c r="U13" t="n">
-        <v>5669.9411</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2499.08804</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3517.46318</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2127.56813</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4447.5403</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3352.63295</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2312.21339</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2818.98558</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2174.82349</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13713.22429</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3808.99922</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1130.7083</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8036.14995</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8838.85896</v>
-      </c>
-      <c r="O14" t="n">
-        <v>49061.78167</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2330.56959</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>8762.67973</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1070.25224</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2924.83134</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21178.0502</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6578.75463</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3064.23344</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4190.46501</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2208.00495</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5568.72269</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4220.74909</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2478.45012</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3337.62487</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2599.93472</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16732.35015</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4817.53471</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1124.20438</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10040.93037</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11580.53766</v>
-      </c>
-      <c r="O15" t="n">
-        <v>61209.22809</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2689.7878</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10790.52899</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1144.86334</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3531.36821</v>
-      </c>
-      <c r="T15" t="n">
-        <v>25951.17297</v>
-      </c>
-      <c r="U15" t="n">
-        <v>8259.127140000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3464.16064</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5044.2804</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2795.39121</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6787.44364</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4922.1905</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3057.1921</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3839.03541</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3192.19664</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19645.24262</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5487.2254</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1043.38945</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10791.8915</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11493.75865</v>
-      </c>
-      <c r="O16" t="n">
-        <v>66920.54876000001</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2907.6223</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>12008.93097</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1397.83524</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4187.47921</v>
-      </c>
-      <c r="T16" t="n">
-        <v>28300.08487</v>
-      </c>
-      <c r="U16" t="n">
-        <v>9054.29019</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3408.2428</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5002.1883</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2805.2562</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7860.2477</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4929.687</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3292.2021</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3734.9446</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3433.673</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21201.5288</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5911.6759</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1241.4492</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10670.1258</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13199.6454</v>
-      </c>
-      <c r="O17" t="n">
-        <v>64715.5168</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2951.0934</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>12256.4759</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1523.0953</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3746.4365</v>
-      </c>
-      <c r="T17" t="n">
-        <v>24937.1721</v>
-      </c>
-      <c r="U17" t="n">
-        <v>10531.0593</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3760.2581</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5874.3891</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2437.5827</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9104.206399999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5673.0525</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3658.6219</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4180.8166</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3271.1526</v>
-      </c>
-      <c r="J18" t="n">
-        <v>24117.5017</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6706.5471</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1489.921</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11458.4154</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13115.7145</v>
-      </c>
-      <c r="O18" t="n">
-        <v>70270.3881</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3334.957</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>12830.5731</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1774.378</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3678.7329</v>
-      </c>
-      <c r="T18" t="n">
-        <v>28029.4266</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11749.6447</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3447.027</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5831.218</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2229.469</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11129.493</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6362.505</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4341.532</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7540.651</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3131.621</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26220.07</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7644.117</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1404.872</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11876.717</v>
-      </c>
-      <c r="N19" t="n">
-        <v>14921.134</v>
-      </c>
-      <c r="O19" t="n">
-        <v>77379.74000000001</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3403.046</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>16757.837</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2059.892</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4063.211</v>
-      </c>
-      <c r="T19" t="n">
-        <v>30811.121</v>
-      </c>
-      <c r="U19" t="n">
-        <v>12426.638</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2856.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6777.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2286.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13431.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7860.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4587.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5781.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3159.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>30050.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10335.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1499</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11373.6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15941.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>87449.89999999999</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3699.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>17539.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2524.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3659.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>37477.3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3606.6463</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8020.9194</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2360.232</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16412.3276</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10540.9836</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5434.7628</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6786.8833</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3597.4156</v>
-      </c>
-      <c r="J21" t="n">
-        <v>34375.5182</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11786.4191</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1323.2995</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14445.363</v>
-      </c>
-      <c r="N21" t="n">
-        <v>18446.3517</v>
-      </c>
-      <c r="O21" t="n">
-        <v>105398.6948</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4398.1412</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>20278.3305</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2692.8999</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4137.512</v>
-      </c>
-      <c r="T21" t="n">
-        <v>45305.3637</v>
-      </c>
-      <c r="U21" t="n">
-        <v>16510.7207</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4813.5918</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9931.649100000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2629.5856</v>
-      </c>
-      <c r="E22" t="n">
-        <v>18999.8028</v>
-      </c>
-      <c r="F22" t="n">
-        <v>13376.4493</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5789.2075</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7983.9453</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3791.9217</v>
-      </c>
-      <c r="J22" t="n">
-        <v>40869.7035</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14047.0107</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1346.8378</v>
-      </c>
-      <c r="M22" t="n">
-        <v>17355.2387</v>
-      </c>
-      <c r="N22" t="n">
-        <v>18548.2568</v>
-      </c>
-      <c r="O22" t="n">
-        <v>123388.3688</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5051.337</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>22878.7123</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3267.7604</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4065.2311</v>
-      </c>
-      <c r="T22" t="n">
-        <v>53827.4866</v>
-      </c>
-      <c r="U22" t="n">
-        <v>19417.8985</v>
+        <v>22328.2635</v>
       </c>
     </row>
   </sheetData>
